--- a/com.mbusa/src/test/resources/test_data.xlsx
+++ b/com.mbusa/src/test/resources/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdul\IdeaProjects\SeleniumBootcamp\com.mbusa\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883576F6-37BB-4634-816A-E5EB71F93344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF79F4A-C9F8-4D0B-A778-8F4AFE238064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{BC201EB6-E7F9-4C2D-9611-026A5FFE1002}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="16201" windowHeight="9308" xr2:uid="{BC201EB6-E7F9-4C2D-9611-026A5FFE1002}"/>
   </bookViews>
   <sheets>
     <sheet name="login_mercedes" sheetId="1" r:id="rId1"/>
@@ -413,7 +413,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/com.mbusa/src/test/resources/test_data.xlsx
+++ b/com.mbusa/src/test/resources/test_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdul\IdeaProjects\SeleniumBootcamp\com.mbusa\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF79F4A-C9F8-4D0B-A778-8F4AFE238064}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98C1939-C495-442C-9413-8A234009B9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1837" yWindow="1837" windowWidth="16201" windowHeight="9308" xr2:uid="{BC201EB6-E7F9-4C2D-9611-026A5FFE1002}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="16200" windowHeight="9307" xr2:uid="{BC201EB6-E7F9-4C2D-9611-026A5FFE1002}"/>
   </bookViews>
   <sheets>
     <sheet name="login_mercedes" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>email</t>
   </si>
@@ -48,6 +48,18 @@
   </si>
   <si>
     <t>Serpent9999+</t>
+  </si>
+  <si>
+    <t>sadouni.dalal@gmail.com</t>
+  </si>
+  <si>
+    <t>AydenLiam1213@</t>
+  </si>
+  <si>
+    <t>tinatebany@gmail.com</t>
+  </si>
+  <si>
+    <t>Qwerty2023/*-</t>
   </si>
 </sst>
 </file>
@@ -410,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5164CB4-3250-4C1D-8A6B-89A2FE8895A6}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -438,9 +450,27 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{3005C367-4021-4947-BBBF-838D9D875F63}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{F7E37B09-8601-4F83-999C-410BB390BB19}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{FDA9DF26-2126-47F7-A5C1-30EC75284301}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/com.mbusa/src/test/resources/test_data.xlsx
+++ b/com.mbusa/src/test/resources/test_data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdul\IdeaProjects\SeleniumBootcamp\com.mbusa\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E98C1939-C495-442C-9413-8A234009B9B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBDAD895-0ED6-4B70-943D-789EFC77E0BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="16200" windowHeight="9307" xr2:uid="{BC201EB6-E7F9-4C2D-9611-026A5FFE1002}"/>
+    <workbookView xWindow="47595" yWindow="2115" windowWidth="16200" windowHeight="9315" activeTab="1" xr2:uid="{BC201EB6-E7F9-4C2D-9611-026A5FFE1002}"/>
   </bookViews>
   <sheets>
     <sheet name="login_mercedes" sheetId="1" r:id="rId1"/>
+    <sheet name="doFindDealer_city" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>email</t>
   </si>
@@ -60,6 +61,12 @@
   </si>
   <si>
     <t>Qwerty2023/*-</t>
+  </si>
+  <si>
+    <t>zipcode</t>
+  </si>
+  <si>
+    <t>Philadelphia</t>
   </si>
 </sst>
 </file>
@@ -424,7 +431,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5164CB4-3250-4C1D-8A6B-89A2FE8895A6}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -474,4 +481,29 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{318B589D-FA5D-4AE3-A583-8B72443B4C4A}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>